--- a/ForDevelopments/Dat/BaseDeDatosDeAlimentos.xlsx
+++ b/ForDevelopments/Dat/BaseDeDatosDeAlimentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\Dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotace\Desktop\HealthApp\ForDevelopments\Dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDDEF46-3216-46C8-B5BE-FCC38EF0400A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75C8572-E5F8-43CF-A8DF-52F160CCD7B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alimentos" sheetId="1" r:id="rId1"/>
@@ -583,9 +583,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -642,7 +647,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>41.6</v>
@@ -794,7 +799,7 @@
         <v>19.3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -832,7 +837,7 @@
         <v>25.3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>19.600000000000001</v>
@@ -870,7 +875,7 @@
         <v>57.7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>25.3</v>
@@ -908,7 +913,7 @@
         <v>51.5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>11.3</v>
@@ -946,7 +951,7 @@
         <v>46.4</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>20.6</v>
@@ -984,7 +989,7 @@
         <v>64</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>19.100000000000001</v>
@@ -1022,7 +1027,7 @@
         <v>70.3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>33.1</v>
@@ -1060,7 +1065,7 @@
         <v>46.8</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1098,7 +1103,7 @@
         <v>53</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>21</v>
@@ -1136,7 +1141,7 @@
         <v>71.099999999999994</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>31.4</v>
@@ -1174,7 +1179,7 @@
         <v>1.6</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0.8</v>
@@ -1212,7 +1217,7 @@
         <v>121.38</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="G17">
         <v>8.64</v>
@@ -1250,7 +1255,7 @@
         <v>88.8</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1288,7 +1293,7 @@
         <v>110.74</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>24.2</v>
@@ -1326,7 +1331,7 @@
         <v>82.418999999999997</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>8.0850000000000009</v>
@@ -1364,7 +1369,7 @@
         <v>136.35</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1402,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>24</v>
@@ -1440,7 +1445,10 @@
         <v>30</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>27</v>
       </c>
       <c r="H23">
         <v>1.8</v>
@@ -1513,7 +1521,7 @@
         <v>5.4</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>5.3</v>
@@ -1551,7 +1559,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>9.8000000000000007</v>
@@ -1589,7 +1597,7 @@
         <v>20.239999999999998</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>19.600000000000001</v>
@@ -1627,7 +1635,7 @@
         <v>174.41</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>51.128999999999998</v>
@@ -1665,7 +1673,7 @@
         <v>142.94</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G29">
         <v>0.2</v>
@@ -1695,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
